--- a/accuracy_scores.xlsx
+++ b/accuracy_scores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>SVC</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t xml:space="preserve">folds </t>
+  </si>
+  <si>
+    <t>Log reg</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>DT</t>
   </si>
 </sst>
 </file>
@@ -113,9 +131,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -157,7 +177,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -175,6 +195,7 @@
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -192,6 +213,7 @@
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -522,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I19"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -971,6 +993,53 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>0.88853188334199995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>0.89742956005899999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/accuracy_scores.xlsx
+++ b/accuracy_scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="19200" windowHeight="11720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>SVC</t>
   </si>
@@ -55,24 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">folds </t>
-  </si>
-  <si>
-    <t>Log reg</t>
-  </si>
-  <si>
-    <t>penalty</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>FAST</t>
-  </si>
-  <si>
-    <t>DT</t>
   </si>
 </sst>
 </file>
@@ -80,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -114,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,7 +119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,14 +158,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -196,6 +190,7 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -214,6 +209,7 @@
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -544,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -582,23 +578,24 @@
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>2.1139999999999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="7">
         <v>0.93689999999999996</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>5</v>
       </c>
     </row>
@@ -624,44 +621,45 @@
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4">
         <v>1000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>64.89</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>0.94066000000000005</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5">
+      <c r="E5" s="5"/>
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>0.91339999999999999</v>
       </c>
       <c r="I5">
@@ -717,23 +715,23 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8">
+      <c r="E8" s="5"/>
+      <c r="F8" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>6.681</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>0.91100000000000003</v>
       </c>
       <c r="I8">
@@ -741,22 +739,23 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
         <v>0.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>5.0565731525400004</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>2.8430160692200002E-2</v>
       </c>
       <c r="I9">
@@ -991,53 +990,6 @@
       </c>
       <c r="I19">
         <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23">
-        <v>0.88853188334199995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24">
-        <v>0.89742956005899999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/accuracy_scores.xlsx
+++ b/accuracy_scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="19200" windowHeight="11720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="19200" windowHeight="15120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>SVC</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t xml:space="preserve">folds </t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>Log Reg</t>
+  </si>
+  <si>
+    <t>L1 penalty</t>
+  </si>
+  <si>
+    <t>L2 penalty</t>
+  </si>
+  <si>
+    <t>AdaBoost</t>
   </si>
 </sst>
 </file>
@@ -161,15 +179,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -540,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I19"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -578,24 +601,24 @@
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>2.1139999999999999</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <v>0.93689999999999996</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
     </row>
@@ -606,14 +629,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
       <c r="F3">
         <v>100</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>7.016</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <v>0.92830000000000001</v>
       </c>
       <c r="I3">
@@ -621,45 +644,45 @@
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3">
         <v>1000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>64.89</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <v>0.94066000000000005</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>0.91339999999999999</v>
       </c>
       <c r="I5">
@@ -676,14 +699,14 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>7.0830000000000002</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="10">
         <v>0.91973000000000005</v>
       </c>
       <c r="I6">
@@ -700,14 +723,14 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1"/>
       <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>2.0190000000000001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="10">
         <v>0.91222999999999999</v>
       </c>
       <c r="I7">
@@ -715,23 +738,23 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>6.681</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="9">
         <v>0.91100000000000003</v>
       </c>
       <c r="I8">
@@ -739,47 +762,46 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11">
+        <v>0.31635999999999997</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
         <v>0.5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="3">
         <v>10</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="5">
         <v>5.0565731525400004</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="9">
         <v>2.8430160692200002E-2</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2.1243069171900002</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.77132262051900002</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -792,17 +814,17 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
-        <v>5.0000000000000002E-5</v>
+      <c r="E11" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="3">
-        <v>3.0504698753400001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.28924598269500001</v>
+      <c r="G11" s="2">
+        <v>2.1243069171900002</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.77132262051900002</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -815,17 +837,17 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2">
-        <v>5.0000000000000004E-6</v>
+      <c r="E12" s="1">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>3.6481461524999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.102595797281</v>
+      <c r="G12" s="2">
+        <v>3.0504698753400001</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.28924598269500001</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -838,17 +860,17 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.5</v>
+      <c r="E13" s="1">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13" s="3">
-        <v>31.750524997700001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3.7082818294200001E-2</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.6481461524999999</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.102595797281</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -861,17 +883,17 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2">
-        <v>5.0000000000000001E-4</v>
+      <c r="E14" s="1">
+        <v>0.5</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>11.3568599224</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.92707045735500004</v>
+      <c r="G14" s="2">
+        <v>31.750524997700001</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3.7082818294200001E-2</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -884,17 +906,17 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2">
-        <v>5.0000000000000002E-5</v>
+      <c r="E15" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>13.7093791962</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.82200247218800004</v>
+      <c r="G15" s="2">
+        <v>11.3568599224</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.92707045735500004</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -907,17 +929,17 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2">
-        <v>5.0000000000000004E-6</v>
+      <c r="E16" s="1">
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
-      <c r="G16" s="3">
-        <v>24.0905621052</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.27194066749099999</v>
+      <c r="G16" s="2">
+        <v>13.7093791962</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.82200247218800004</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -930,16 +952,16 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>24.0905621052</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <v>0.27194066749099999</v>
       </c>
       <c r="I17">
@@ -953,17 +975,17 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2">
-        <v>5.0000000000000001E-3</v>
+      <c r="E18" s="1">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="F18">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>309.19</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3.0901999999999999E-2</v>
+        <v>100</v>
+      </c>
+      <c r="G18" s="2">
+        <v>24.0905621052</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.27194066749099999</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -976,25 +998,105 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="2">
-        <v>5.0000000000000001E-4</v>
+      <c r="E19" s="1">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F19">
         <v>1000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
+        <v>309.19</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3.0901999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="2">
         <v>305.98570000000001</v>
       </c>
-      <c r="H19">
+      <c r="H20" s="12">
         <v>0.80346106304099996</v>
       </c>
-      <c r="I19">
-        <v>5</v>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.67820000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.89198999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.89470000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.68240000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.70109999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/accuracy_scores.xlsx
+++ b/accuracy_scores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>SVC</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>AdaBoost</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>est 300</t>
+  </si>
+  <si>
+    <t>depth 3</t>
   </si>
 </sst>
 </file>
@@ -563,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1095,6 +1107,26 @@
         <v>0.70109999999999995</v>
       </c>
     </row>
+    <row r="26" spans="2:9">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>0.92989999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
